--- a/Excelsheets/LinkedinManualTestCases.xlsx
+++ b/Excelsheets/LinkedinManualTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sunny\SunnyLinkedInProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sunny\SunnyLinkedInProject\linkedinLogin\Excelsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D22E759-5AAF-4F8F-8656-74FAE4410C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77047B-2CD0-4AEB-A937-BFEBCD718AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CC3DED9-F81E-47A4-914E-3C01AE6E8C9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Login to Linkedin application with valid Username and Password</t>
-  </si>
-  <si>
-    <t>1. Open Chrome Browser
-2. Access Linkedin URL.
-https://www.linkedin.com/
-3. Click on Sign in button.
-4. Enter valid Email or phone
-5. Enter valid Password 
-6. Click on Sign in button.</t>
   </si>
   <si>
     <t>Linkedin home page should be displayed</t>
@@ -79,6 +70,97 @@
 4. Enter invalid Email or phone
 5. Enter invalid Password 
 6. Click on Sign in button.</t>
+  </si>
+  <si>
+    <t>Verify login with blank Username(Email) and Password</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Browser
+2. Access Linkedin URL.
+https://www.linkedin.com/
+3. Click on Sign in button.
+4. Leave both username and password fields empty. 
+5. Click on Sign in button.</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Browser
+2. Access Linkedin URL.
+https://www.linkedin.com/
+3. Click on Sign in button.
+4. Enter valid Email or phone
+5. Enter valid Password 
+6. Uncheck the keep me logged in button
+7. Click on Sign in button.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed</t>
+  </si>
+  <si>
+    <t>Error message is displayed</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>Verify the functionality of forgot password link</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Browser
+2. Access Linkedin URL.
+https://www.linkedin.com/
+3. Click on Sign in button.
+4. Click on Forgot password link</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>Verify the functionality of show password link</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Browser
+2. Access Linkedin URL.
+https://www.linkedin.com/
+3. Click on Sign in button.
+4. Enter valid Password.
+5. Click on show button</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>Verify the "Keep me logged in" checkbox  functon correctly</t>
+  </si>
+  <si>
+    <t>1. Open Chrome Browser
+2. Access Linkedin URL.
+https://www.linkedin.com/
+3. Click on Sign in button.
+4. Enter valid Email or phone
+5. Enter valid Password 
+6. Check the keep me logged in box
+7. Click on Sign in button.</t>
+  </si>
+  <si>
+    <t>Forgot Password page should be displayed</t>
+  </si>
+  <si>
+    <t>Forgot password page is dispalyed</t>
+  </si>
+  <si>
+    <t>Password should be displayed</t>
+  </si>
+  <si>
+    <t>Password is displayed</t>
+  </si>
+  <si>
+    <t>Keep me logged in checkbox should be uncheck</t>
+  </si>
+  <si>
+    <t>Keep me logged in checkbox is uncheck</t>
   </si>
 </sst>
 </file>
@@ -463,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A557EE-9299-48D9-822D-0BFD99845367}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,8 +556,8 @@
     <col min="1" max="1" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -488,7 +570,7 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -498,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -506,24 +588,98 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
